--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4654.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4654.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4654</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fakhar Zaman</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4176</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4177</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1596,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1648,7 +1713,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1700,7 +1765,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1752,7 +1817,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1804,7 +1869,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1856,7 +1921,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1908,7 +1973,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1960,7 +2025,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2012,7 +2077,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2064,7 +2129,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2116,7 +2181,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2168,7 +2233,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2220,7 +2285,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2272,7 +2337,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2324,7 +2389,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2376,7 +2441,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2428,7 +2493,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2480,7 +2545,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2532,7 +2597,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2584,7 +2649,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2636,7 +2701,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2688,7 +2753,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2740,7 +2805,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2792,7 +2857,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2844,7 +2909,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2896,7 +2961,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4434</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2948,7 +3013,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3000,7 +3065,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3052,7 +3117,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3104,7 +3169,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3156,7 +3221,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3208,7 +3273,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3260,7 +3325,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3312,7 +3377,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3364,7 +3429,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3416,7 +3481,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3468,7 +3533,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3520,7 +3585,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3572,7 +3637,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4634</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3624,7 +3689,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4638</t>
+          <t>4638</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3676,7 +3741,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4641</t>
+          <t>4641</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3728,7 +3793,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3780,7 +3845,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3832,7 +3897,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3871,7 +3936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3893,7 +3958,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3930,7 +3995,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3967,7 +4032,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4004,7 +4069,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4041,7 +4106,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4078,7 +4143,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4115,7 +4180,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4152,7 +4217,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4178,6 +4243,569 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>0/23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.42%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.92%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.57%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.56%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.13%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.00%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.94%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13.01%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4634</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.57%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4641</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.62%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4654.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4654.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4654.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4654.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4249,567 +4248,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25.42%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4434</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.72%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.92%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>59.57%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>31.56%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.13%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.81%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.00%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.94%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13.01%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4634</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4638</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4641</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>12.62%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>